--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.35/sum_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.35/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="283">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,1036 +49,817 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>[UNK]</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>dangerous</t>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>behind</t>
+    <t>evil</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
-    <t>evil</t>
+    <t>fucked</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>false</t>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>dumb</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>seriously</t>
+    <t>shocking</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
     <t>boring</t>
   </si>
   <si>
-    <t>horrible</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>shocked</t>
   </si>
   <si>
     <t>frightening</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>surprised</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>weeks</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>suicide</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>literally</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
   <si>
     <t>single</t>
   </si>
   <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>biased</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>weak</t>
-  </si>
-  <si>
-    <t>rarely</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>dangerously</t>
-  </si>
-  <si>
-    <t>idiots</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>aside</t>
-  </si>
-  <si>
-    <t>depressed</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>stupidity</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>manipulating</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>curious</t>
-  </si>
-  <si>
-    <t>annoyed</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>bitter</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>drunk</t>
-  </si>
-  <si>
-    <t>drug</t>
-  </si>
-  <si>
-    <t>inc</t>
+    <t>th</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>strongly</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>trend</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>soc</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>posting</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>quite</t>
+  </si>
+  <si>
+    <t>inspired</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>currently</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>seen</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>facts</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>platforms</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>soon</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>anything</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>oh</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>aware</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>wonder</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>yet</t>
   </si>
   <si>
     <t>watched</t>
   </si>
   <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>bloody</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>silly</t>
-  </si>
-  <si>
-    <t>slight</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>mu</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>lonely</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>aware</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>self</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>let</t>
-  </si>
-  <si>
-    <t>del</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>algorithm</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>activity</t>
+    <t>n</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>polar</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>urge</t>
+  </si>
+  <si>
+    <t>thinking</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>start</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>paying</t>
+    <t>show</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>quick</t>
   </si>
   <si>
     <t>thing</t>
   </si>
   <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>alive</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>increasing</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>recommended</t>
-  </si>
-  <si>
-    <t>interested</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>inspiration</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>facts</t>
-  </si>
-  <si>
-    <t>able</t>
-  </si>
-  <si>
-    <t>matter</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>absolutely</t>
-  </si>
-  <si>
-    <t>jar</t>
-  </si>
-  <si>
-    <t>moment</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>widely</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>rig</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>marketing</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>inform</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>vast</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>jeff</t>
-  </si>
-  <si>
-    <t>lots</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>seen</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>keen</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>notification</t>
   </si>
   <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>specially</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>using</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>absolute</t>
-  </si>
-  <si>
-    <t>impressed</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>yeah</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>networking</t>
-  </si>
-  <si>
     <t>would</t>
-  </si>
-  <si>
-    <t>realize</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>ins</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>wonder</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>plus</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>posting</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>fact</t>
-  </si>
-  <si>
-    <t>exponential</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>yep</t>
-  </si>
-  <si>
-    <t>changes</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>figure</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>soc</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
-    <t>quite</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>faster</t>
   </si>
   <si>
     <t>positive</t>
@@ -1439,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q246"/>
+  <dimension ref="A1:Q213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,10 +1228,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>355</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1508,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.128</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C3">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1526,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>0.2141212586339217</v>
+        <v>0.2155038759689923</v>
       </c>
       <c r="L3">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M3">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1550,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1558,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1133333333333333</v>
+        <v>0.1192145862552595</v>
       </c>
       <c r="C4">
         <v>85</v>
@@ -1579,16 +1360,16 @@
         <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>0.04067536454336147</v>
+        <v>0.04496124031007752</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1600,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1608,13 +1389,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.07866666666666666</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1626,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="K5">
-        <v>0.0353031465848043</v>
+        <v>0.03643410852713178</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1650,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1658,13 +1439,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04</v>
+        <v>0.03786816269284712</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1676,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="K6">
-        <v>0.03376822716807368</v>
+        <v>0.03565891472868217</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1700,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1708,13 +1489,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.036</v>
+        <v>0.0364656381486676</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1726,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="K7">
-        <v>0.02916346891788181</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1750,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1698</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1758,13 +1539,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03333333333333333</v>
+        <v>0.0364656381486676</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1776,13 +1557,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="K8">
-        <v>0.02762854950115119</v>
+        <v>0.02790697674418605</v>
       </c>
       <c r="L8">
         <v>36</v>
@@ -1800,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1808,37 +1589,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02933333333333333</v>
+        <v>0.02664796633941094</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>277</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="K9">
-        <v>0.02762854950115119</v>
+        <v>0.02713178294573643</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1850,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>628</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1858,37 +1639,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02266666666666667</v>
+        <v>0.02524544179523142</v>
       </c>
       <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>17</v>
       </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>0.11</v>
-      </c>
-      <c r="F10">
-        <v>0.89</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>280</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="K10">
-        <v>0.02225633154259401</v>
+        <v>0.0248062015503876</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1900,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>752</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1908,13 +1689,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02266666666666667</v>
+        <v>0.02244039270687237</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1926,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>0.01995395241749808</v>
+        <v>0.02015503875968992</v>
       </c>
       <c r="L11">
         <v>26</v>
@@ -1958,7 +1739,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.02</v>
+        <v>0.02103786816269285</v>
       </c>
       <c r="C12">
         <v>15</v>
@@ -1979,16 +1760,16 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="K12">
-        <v>0.01611665387567153</v>
+        <v>0.01782945736434109</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2000,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2008,7 +1789,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01866666666666667</v>
+        <v>0.01963534361851332</v>
       </c>
       <c r="C13">
         <v>14</v>
@@ -2029,16 +1810,16 @@
         <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="K13">
-        <v>0.01534919416730622</v>
+        <v>0.01705426356589147</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2050,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>520</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2058,7 +1839,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01866666666666667</v>
+        <v>0.01963534361851332</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -2076,19 +1857,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="K14">
-        <v>0.01458173445894091</v>
+        <v>0.01705426356589147</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2100,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>40</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2108,7 +1889,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01866666666666667</v>
+        <v>0.01963534361851332</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -2126,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="K15">
-        <v>0.01381427475057559</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="L15">
         <v>18</v>
@@ -2150,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2158,7 +1939,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01866666666666667</v>
+        <v>0.01963534361851332</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -2176,13 +1957,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>0.01381427475057559</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="L16">
         <v>18</v>
@@ -2208,13 +1989,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01733333333333333</v>
+        <v>0.01963534361851332</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2229,16 +2010,16 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="K17">
-        <v>0.01381427475057559</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2250,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2258,7 +2039,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01733333333333333</v>
+        <v>0.0182328190743338</v>
       </c>
       <c r="C18">
         <v>13</v>
@@ -2276,19 +2057,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="K18">
-        <v>0.01304681504221028</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -2300,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2308,7 +2089,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01733333333333333</v>
+        <v>0.0182328190743338</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -2326,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="K19">
-        <v>0.01304681504221028</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2350,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>599</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2358,49 +2139,49 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.016</v>
+        <v>0.0182328190743338</v>
       </c>
       <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20">
+        <v>0.01162790697674419</v>
+      </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>12</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K20">
-        <v>0.01304681504221028</v>
-      </c>
-      <c r="L20">
-        <v>17</v>
-      </c>
-      <c r="M20">
-        <v>17</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2408,13 +2189,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01466666666666667</v>
+        <v>0.0182328190743338</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2426,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="K21">
-        <v>0.01151189562547966</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="L21">
         <v>15</v>
@@ -2450,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>268</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2458,13 +2239,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01466666666666667</v>
+        <v>0.0182328190743338</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2476,19 +2257,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="K22">
-        <v>0.01151189562547966</v>
+        <v>0.01085271317829457</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2500,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2508,13 +2289,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01333333333333333</v>
+        <v>0.01683029453015428</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2526,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="K23">
-        <v>0.00920951650038373</v>
+        <v>0.01007751937984496</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2550,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2558,13 +2339,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.012</v>
+        <v>0.01542776998597475</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2576,19 +2357,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="K24">
-        <v>0.00920951650038373</v>
+        <v>0.01007751937984496</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2600,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2608,13 +2389,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.012</v>
+        <v>0.01402524544179523</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2626,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="K25">
-        <v>0.00920951650038373</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="L25">
         <v>12</v>
@@ -2650,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2658,7 +2439,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.012</v>
+        <v>0.01262272089761571</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -2679,10 +2460,10 @@
         <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="K26">
-        <v>0.00920951650038373</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="L26">
         <v>12</v>
@@ -2700,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2708,7 +2489,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.012</v>
+        <v>0.01262272089761571</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -2726,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="K27">
-        <v>0.008442056792018419</v>
+        <v>0.008527131782945736</v>
       </c>
       <c r="L27">
         <v>11</v>
@@ -2758,7 +2539,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.012</v>
+        <v>0.01262272089761571</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -2776,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="K28">
-        <v>0.008442056792018419</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2800,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2808,7 +2589,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01066666666666667</v>
+        <v>0.01122019635343618</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -2826,19 +2607,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="K29">
-        <v>0.008442056792018419</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2850,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2858,7 +2639,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01066666666666667</v>
+        <v>0.01122019635343618</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -2876,19 +2657,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="K30">
-        <v>0.008442056792018419</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="L30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2900,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2908,13 +2689,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.009333333333333334</v>
+        <v>0.01122019635343618</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2926,19 +2707,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="K31">
-        <v>0.007674597083653108</v>
+        <v>0.006976744186046512</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2950,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2958,13 +2739,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.008</v>
+        <v>0.01122019635343618</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2979,16 +2760,16 @@
         <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="K32">
-        <v>0.007674597083653108</v>
+        <v>0.006976744186046512</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -3000,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3008,13 +2789,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008</v>
+        <v>0.009817671809256662</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3026,19 +2807,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="K33">
-        <v>0.007674597083653108</v>
+        <v>0.006976744186046512</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -3050,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3058,37 +2839,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.008</v>
+        <v>0.009817671809256662</v>
       </c>
       <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>6</v>
       </c>
-      <c r="D34">
-        <v>6</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>7</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="K34">
-        <v>0.006139677666922486</v>
+        <v>0.006976744186046512</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -3100,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3108,13 +2889,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006666666666666667</v>
+        <v>0.009817671809256662</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3129,16 +2910,16 @@
         <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="K35">
-        <v>0.006139677666922486</v>
+        <v>0.006976744186046512</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -3150,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3158,13 +2939,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006666666666666667</v>
+        <v>0.008415147265077139</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3176,19 +2957,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="K36">
-        <v>0.005372217958557176</v>
+        <v>0.006201550387596899</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -3200,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3208,13 +2989,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006666666666666667</v>
+        <v>0.008415147265077139</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3226,19 +3007,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="K37">
-        <v>0.005372217958557176</v>
+        <v>0.006201550387596899</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -3250,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3258,49 +3039,49 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006666666666666667</v>
+        <v>0.008415147265077139</v>
       </c>
       <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38">
+        <v>0.006201550387596899</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>8</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>5</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>7</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K38">
-        <v>0.005372217958557176</v>
-      </c>
-      <c r="L38">
-        <v>7</v>
-      </c>
-      <c r="M38">
-        <v>7</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3308,13 +3089,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006666666666666667</v>
+        <v>0.008415147265077139</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3326,13 +3107,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="K39">
-        <v>0.005372217958557176</v>
+        <v>0.005426356589147287</v>
       </c>
       <c r="L39">
         <v>7</v>
@@ -3350,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3358,13 +3139,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005333333333333333</v>
+        <v>0.008415147265077139</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3376,13 +3157,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="K40">
-        <v>0.005372217958557176</v>
+        <v>0.005426356589147287</v>
       </c>
       <c r="L40">
         <v>7</v>
@@ -3400,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3408,13 +3189,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005333333333333333</v>
+        <v>0.007012622720897616</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3426,31 +3207,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="K41">
-        <v>0.004604758250191865</v>
+        <v>0.005426356589147287</v>
       </c>
       <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>6</v>
-      </c>
-      <c r="M41">
-        <v>6</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3458,13 +3239,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005333333333333333</v>
+        <v>0.007012622720897616</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3476,13 +3257,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="K42">
-        <v>0.004604758250191865</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="L42">
         <v>6</v>
@@ -3500,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3508,37 +3289,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005333333333333333</v>
+        <v>0.007012622720897616</v>
       </c>
       <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>4</v>
       </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>10</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="K43">
-        <v>0.004604758250191865</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="L43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3550,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>131</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3558,7 +3339,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005333333333333333</v>
+        <v>0.005610098176718092</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -3576,19 +3357,19 @@
         <v>0</v>
       </c>
       <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K44">
+        <v>0.003875968992248062</v>
+      </c>
+      <c r="L44">
         <v>5</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K44">
-        <v>0.004604758250191865</v>
-      </c>
-      <c r="L44">
-        <v>6</v>
-      </c>
       <c r="M44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3600,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3608,13 +3389,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004</v>
+        <v>0.005610098176718092</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3626,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="K45">
-        <v>0.003837298541826554</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="L45">
         <v>5</v>
@@ -3650,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3658,7 +3439,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004</v>
+        <v>0.004207573632538569</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -3676,13 +3457,13 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="K46">
-        <v>0.003837298541826554</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="L46">
         <v>5</v>
@@ -3700,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3708,13 +3489,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004</v>
+        <v>0.002805049088359046</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3726,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="K47">
-        <v>0.003837298541826554</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="L47">
         <v>5</v>
@@ -3750,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3758,13 +3539,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004</v>
+        <v>0.002805049088359046</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3776,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="K48">
-        <v>0.003837298541826554</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="L48">
         <v>5</v>
@@ -3800,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3808,13 +3589,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3826,13 +3607,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="K49">
-        <v>0.003837298541826554</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="L49">
         <v>5</v>
@@ -3850,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3858,13 +3639,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3876,19 +3657,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="K50">
-        <v>0.003837298541826554</v>
+        <v>0.00310077519379845</v>
       </c>
       <c r="L50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3900,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3908,13 +3689,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3926,13 +3707,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="K51">
-        <v>0.003069838833461243</v>
+        <v>0.00310077519379845</v>
       </c>
       <c r="L51">
         <v>4</v>
@@ -3950,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3958,13 +3739,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3976,13 +3757,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="K52">
-        <v>0.003069838833461243</v>
+        <v>0.00310077519379845</v>
       </c>
       <c r="L52">
         <v>4</v>
@@ -4000,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -4008,13 +3789,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4026,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="K53">
-        <v>0.003069838833461243</v>
+        <v>0.00310077519379845</v>
       </c>
       <c r="L53">
         <v>4</v>
@@ -4050,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4058,13 +3839,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4076,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="K54">
-        <v>0.003069838833461243</v>
+        <v>0.00310077519379845</v>
       </c>
       <c r="L54">
         <v>4</v>
@@ -4100,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4108,13 +3889,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4126,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="K55">
-        <v>0.003069838833461243</v>
+        <v>0.00310077519379845</v>
       </c>
       <c r="L55">
         <v>4</v>
@@ -4150,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4158,13 +3939,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4176,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="K56">
-        <v>0.003069838833461243</v>
+        <v>0.00310077519379845</v>
       </c>
       <c r="L56">
         <v>4</v>
@@ -4200,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>41</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4208,13 +3989,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4226,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="K57">
-        <v>0.003069838833461243</v>
+        <v>0.00310077519379845</v>
       </c>
       <c r="L57">
         <v>4</v>
@@ -4250,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4258,13 +4039,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4276,13 +4057,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="K58">
-        <v>0.003069838833461243</v>
+        <v>0.00310077519379845</v>
       </c>
       <c r="L58">
         <v>4</v>
@@ -4300,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>128</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4308,13 +4089,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -4326,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="K59">
-        <v>0.003069838833461243</v>
+        <v>0.00310077519379845</v>
       </c>
       <c r="L59">
         <v>4</v>
@@ -4350,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4358,13 +4139,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4376,31 +4157,31 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="K60">
-        <v>0.003069838833461243</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>4</v>
-      </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4408,13 +4189,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4426,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="K61">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L61">
         <v>3</v>
@@ -4450,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4458,13 +4239,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4476,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="K62">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L62">
         <v>3</v>
@@ -4500,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4508,13 +4289,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.002666666666666667</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4529,10 +4310,10 @@
         <v>8</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="K63">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L63">
         <v>3</v>
@@ -4550,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4558,7 +4339,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.001333333333333333</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4576,13 +4357,13 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="K64">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L64">
         <v>3</v>
@@ -4608,7 +4389,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.001333333333333333</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4626,13 +4407,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="K65">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L65">
         <v>3</v>
@@ -4650,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4658,7 +4439,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.001333333333333333</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4676,13 +4457,13 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="K66">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L66">
         <v>3</v>
@@ -4700,39 +4481,15 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>12</v>
-      </c>
       <c r="J67" s="1" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="K67">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L67">
         <v>3</v>
@@ -4750,89 +4507,41 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
       <c r="J68" s="1" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="K68">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L68">
         <v>3</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>284</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>2</v>
-      </c>
       <c r="J69" s="1" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="K69">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L69">
         <v>3</v>
@@ -4850,39 +4559,15 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>112</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
       <c r="J70" s="1" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="K70">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L70">
         <v>3</v>
@@ -4900,89 +4585,41 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
       <c r="J71" s="1" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="K71">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L71">
         <v>3</v>
       </c>
       <c r="M71">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>37</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>2</v>
-      </c>
       <c r="J72" s="1" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="K72">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L72">
         <v>3</v>
@@ -5000,39 +4637,15 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>3</v>
-      </c>
       <c r="J73" s="1" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="K73">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L73">
         <v>3</v>
@@ -5050,39 +4663,15 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>2</v>
-      </c>
       <c r="J74" s="1" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="K74">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L74">
         <v>3</v>
@@ -5100,39 +4689,15 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
       <c r="J75" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="K75">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L75">
         <v>3</v>
@@ -5150,39 +4715,15 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>9</v>
-      </c>
       <c r="J76" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="K76">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L76">
         <v>3</v>
@@ -5200,39 +4741,15 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
       <c r="J77" s="1" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="K77">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L77">
         <v>3</v>
@@ -5250,39 +4767,15 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>3</v>
-      </c>
       <c r="J78" s="1" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="K78">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L78">
         <v>3</v>
@@ -5300,39 +4793,15 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
       <c r="J79" s="1" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="K79">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L79">
         <v>3</v>
@@ -5350,39 +4819,15 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>8</v>
-      </c>
       <c r="J80" s="1" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="K80">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L80">
         <v>3</v>
@@ -5400,39 +4845,15 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="K81">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L81">
         <v>3</v>
@@ -5450,39 +4871,15 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="K82">
-        <v>0.002302379125095933</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L82">
         <v>3</v>
@@ -5500,45 +4897,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="K83">
-        <v>0.001534919416730622</v>
+        <v>0.002325581395348837</v>
       </c>
       <c r="L83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -5550,39 +4923,15 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="K84">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L84">
         <v>2</v>
@@ -5600,39 +4949,15 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>46</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="K85">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L85">
         <v>2</v>
@@ -5650,39 +4975,15 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>4</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="K86">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L86">
         <v>2</v>
@@ -5700,39 +5001,15 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="A87" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>3</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="K87">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L87">
         <v>2</v>
@@ -5750,39 +5027,15 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>8</v>
-      </c>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="K88">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L88">
         <v>2</v>
@@ -5800,39 +5053,15 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="K89">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L89">
         <v>2</v>
@@ -5850,39 +5079,15 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>4</v>
-      </c>
-      <c r="E90">
-        <v>0.75</v>
-      </c>
-      <c r="F90">
-        <v>0.25</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>284</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="K90">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L90">
         <v>2</v>
@@ -5900,39 +5105,15 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="A91" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>45</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="K91">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L91">
         <v>2</v>
@@ -5950,39 +5131,15 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="K92">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L92">
         <v>2</v>
@@ -6000,39 +5157,15 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
-      <c r="A93" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>14</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="K93">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L93">
         <v>2</v>
@@ -6050,39 +5183,15 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>4</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="K94">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L94">
         <v>2</v>
@@ -6100,39 +5209,15 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>15</v>
-      </c>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="K95">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L95">
         <v>2</v>
@@ -6150,39 +5235,15 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="K96">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L96">
         <v>2</v>
@@ -6200,39 +5261,15 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="A97" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="K97">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L97">
         <v>2</v>
@@ -6250,39 +5287,15 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
-      <c r="A98" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>5</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="K98">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -6300,39 +5313,15 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
-      <c r="A99" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>23</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="K99">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L99">
         <v>2</v>
@@ -6350,89 +5339,41 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="A100" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>21</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="K100">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L100">
         <v>2</v>
       </c>
       <c r="M100">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="N100">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="A101" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="K101">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L101">
         <v>2</v>
@@ -6450,39 +5391,15 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
-      <c r="A102" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="K102">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L102">
         <v>2</v>
@@ -6500,39 +5417,15 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
-      <c r="A103" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="K103">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L103">
         <v>2</v>
@@ -6550,39 +5443,15 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
-      <c r="A104" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>4</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="K104">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L104">
         <v>2</v>
@@ -6600,39 +5469,15 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
-      <c r="A105" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="K105">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L105">
         <v>2</v>
@@ -6650,39 +5495,15 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
-      <c r="A106" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="K106">
-        <v>0.001534919416730622</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L106">
         <v>2</v>
@@ -6700,124 +5521,100 @@
         <v>0</v>
       </c>
       <c r="Q106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="10:17">
+      <c r="J107" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K107">
+        <v>0.001550387596899225</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="10:17">
+      <c r="J108" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K108">
+        <v>0.001550387596899225</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="10:17">
+      <c r="J109" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K109">
+        <v>0.001550387596899225</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109">
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
-      <c r="A107" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107">
-        <v>0.001333333333333333</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>5</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K107">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L107">
-        <v>1</v>
-      </c>
-      <c r="M107">
-        <v>1</v>
-      </c>
-      <c r="N107">
-        <v>1</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="P107" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17">
-      <c r="J108" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K108">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L108">
-        <v>1</v>
-      </c>
-      <c r="M108">
-        <v>1</v>
-      </c>
-      <c r="N108">
-        <v>1</v>
-      </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-      <c r="P108" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q108">
+    <row r="110" spans="10:17">
+      <c r="J110" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K110">
+        <v>0.001550387596899225</v>
+      </c>
+      <c r="L110">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:17">
-      <c r="J109" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K109">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L109">
-        <v>1</v>
-      </c>
-      <c r="M109">
-        <v>1</v>
-      </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-      <c r="P109" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q109">
+      <c r="M110">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="J110" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K110">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L110">
-        <v>1</v>
-      </c>
-      <c r="M110">
-        <v>1</v>
-      </c>
       <c r="N110">
         <v>1</v>
       </c>
@@ -6828,21 +5625,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="10:17">
+      <c r="J111" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K111">
+        <v>0.001550387596899225</v>
+      </c>
+      <c r="L111">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:17">
-      <c r="J111" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K111">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L111">
-        <v>1</v>
-      </c>
       <c r="M111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -6854,21 +5651,21 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K112">
-        <v>0.0007674597083653108</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -6880,21 +5677,21 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="K113">
-        <v>0.0007674597083653108</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -6906,21 +5703,21 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="K114">
-        <v>0.0007674597083653108</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -6932,21 +5729,21 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="K115">
-        <v>0.0007674597083653108</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -6958,21 +5755,21 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="K116">
-        <v>0.0007674597083653108</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -6989,16 +5786,16 @@
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="K117">
-        <v>0.0007674597083653108</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -7010,21 +5807,21 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="K118">
-        <v>0.0007674597083653108</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -7036,21 +5833,21 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="K119">
-        <v>0.0007674597083653108</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="L119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -7062,15 +5859,15 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="K120">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L120">
         <v>1</v>
@@ -7088,15 +5885,15 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="K121">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -7114,15 +5911,15 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="K122">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L122">
         <v>1</v>
@@ -7140,15 +5937,15 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="K123">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L123">
         <v>1</v>
@@ -7166,15 +5963,15 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="K124">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L124">
         <v>1</v>
@@ -7192,15 +5989,15 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="K125">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L125">
         <v>1</v>
@@ -7218,15 +6015,15 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="K126">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -7244,15 +6041,15 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="K127">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L127">
         <v>1</v>
@@ -7270,15 +6067,15 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="K128">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -7296,15 +6093,15 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="K129">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -7322,15 +6119,15 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="K130">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L130">
         <v>1</v>
@@ -7348,15 +6145,15 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="K131">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -7374,15 +6171,15 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K132">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L132">
         <v>1</v>
@@ -7400,15 +6197,15 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="K133">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L133">
         <v>1</v>
@@ -7426,15 +6223,15 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="K134">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -7452,15 +6249,15 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="K135">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L135">
         <v>1</v>
@@ -7478,15 +6275,15 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="10:17">
       <c r="J136" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="K136">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L136">
         <v>1</v>
@@ -7504,15 +6301,15 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="10:17">
       <c r="J137" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="K137">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L137">
         <v>1</v>
@@ -7530,15 +6327,15 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="10:17">
       <c r="J138" s="1" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="K138">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L138">
         <v>1</v>
@@ -7556,15 +6353,15 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="10:17">
       <c r="J139" s="1" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="K139">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L139">
         <v>1</v>
@@ -7582,15 +6379,15 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="10:17">
       <c r="J140" s="1" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="K140">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L140">
         <v>1</v>
@@ -7608,15 +6405,15 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="10:17">
       <c r="J141" s="1" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="K141">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L141">
         <v>1</v>
@@ -7634,15 +6431,15 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="10:17">
       <c r="J142" s="1" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K142">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L142">
         <v>1</v>
@@ -7660,15 +6457,15 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="10:17">
       <c r="J143" s="1" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="K143">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L143">
         <v>1</v>
@@ -7686,15 +6483,15 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="10:17">
       <c r="J144" s="1" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="K144">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L144">
         <v>1</v>
@@ -7712,15 +6509,15 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="10:17">
       <c r="J145" s="1" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="K145">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L145">
         <v>1</v>
@@ -7738,15 +6535,15 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="10:17">
       <c r="J146" s="1" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="K146">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L146">
         <v>1</v>
@@ -7764,15 +6561,15 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="10:17">
       <c r="J147" s="1" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="K147">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L147">
         <v>1</v>
@@ -7790,15 +6587,15 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="10:17">
       <c r="J148" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="K148">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L148">
         <v>1</v>
@@ -7816,15 +6613,15 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="10:17">
       <c r="J149" s="1" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="K149">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L149">
         <v>1</v>
@@ -7842,15 +6639,15 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="10:17">
       <c r="J150" s="1" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="K150">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L150">
         <v>1</v>
@@ -7868,15 +6665,15 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="10:17">
       <c r="J151" s="1" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="K151">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L151">
         <v>1</v>
@@ -7894,15 +6691,15 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="10:17">
       <c r="J152" s="1" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="K152">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L152">
         <v>1</v>
@@ -7920,15 +6717,15 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="10:17">
       <c r="J153" s="1" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="K153">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L153">
         <v>1</v>
@@ -7946,15 +6743,15 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>129</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="10:17">
       <c r="J154" s="1" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="K154">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L154">
         <v>1</v>
@@ -7972,15 +6769,15 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="10:17">
       <c r="J155" s="1" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="K155">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L155">
         <v>1</v>
@@ -7998,15 +6795,15 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>1</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156" spans="10:17">
       <c r="J156" s="1" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="K156">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L156">
         <v>1</v>
@@ -8024,15 +6821,15 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="10:17">
       <c r="J157" s="1" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="K157">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L157">
         <v>1</v>
@@ -8050,15 +6847,15 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158" spans="10:17">
       <c r="J158" s="1" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="K158">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L158">
         <v>1</v>
@@ -8076,15 +6873,15 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="10:17">
       <c r="J159" s="1" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="K159">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L159">
         <v>1</v>
@@ -8107,10 +6904,10 @@
     </row>
     <row r="160" spans="10:17">
       <c r="J160" s="1" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="K160">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L160">
         <v>1</v>
@@ -8133,10 +6930,10 @@
     </row>
     <row r="161" spans="10:17">
       <c r="J161" s="1" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="K161">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L161">
         <v>1</v>
@@ -8154,15 +6951,15 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="10:17">
       <c r="J162" s="1" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="K162">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L162">
         <v>1</v>
@@ -8180,15 +6977,15 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="10:17">
       <c r="J163" s="1" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="K163">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L163">
         <v>1</v>
@@ -8206,15 +7003,15 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="10:17">
       <c r="J164" s="1" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="K164">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L164">
         <v>1</v>
@@ -8232,15 +7029,15 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="10:17">
       <c r="J165" s="1" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="K165">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L165">
         <v>1</v>
@@ -8258,15 +7055,15 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="10:17">
       <c r="J166" s="1" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="K166">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L166">
         <v>1</v>
@@ -8284,15 +7081,15 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="167" spans="10:17">
       <c r="J167" s="1" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="K167">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L167">
         <v>1</v>
@@ -8310,15 +7107,15 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168" spans="10:17">
       <c r="J168" s="1" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="K168">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L168">
         <v>1</v>
@@ -8336,15 +7133,15 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="10:17">
       <c r="J169" s="1" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="K169">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L169">
         <v>1</v>
@@ -8362,15 +7159,15 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="10:17">
       <c r="J170" s="1" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="K170">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L170">
         <v>1</v>
@@ -8388,15 +7185,15 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="10:17">
       <c r="J171" s="1" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="K171">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L171">
         <v>1</v>
@@ -8414,15 +7211,15 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="172" spans="10:17">
       <c r="J172" s="1" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="K172">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L172">
         <v>1</v>
@@ -8440,15 +7237,15 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>7</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173" spans="10:17">
       <c r="J173" s="1" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="K173">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L173">
         <v>1</v>
@@ -8466,15 +7263,15 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174" spans="10:17">
       <c r="J174" s="1" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="K174">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L174">
         <v>1</v>
@@ -8492,15 +7289,15 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="10:17">
       <c r="J175" s="1" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="K175">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L175">
         <v>1</v>
@@ -8518,15 +7315,15 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="176" spans="10:17">
       <c r="J176" s="1" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="K176">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L176">
         <v>1</v>
@@ -8544,15 +7341,15 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="177" spans="10:17">
       <c r="J177" s="1" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="K177">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L177">
         <v>1</v>
@@ -8570,15 +7367,15 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="10:17">
       <c r="J178" s="1" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="K178">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L178">
         <v>1</v>
@@ -8596,15 +7393,15 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="179" spans="10:17">
       <c r="J179" s="1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="K179">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L179">
         <v>1</v>
@@ -8622,15 +7419,15 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="10:17">
       <c r="J180" s="1" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="K180">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L180">
         <v>1</v>
@@ -8648,15 +7445,15 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181" spans="10:17">
       <c r="J181" s="1" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="K181">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L181">
         <v>1</v>
@@ -8674,15 +7471,15 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="10:17">
       <c r="J182" s="1" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="K182">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L182">
         <v>1</v>
@@ -8700,15 +7497,15 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="10:17">
       <c r="J183" s="1" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="K183">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L183">
         <v>1</v>
@@ -8726,15 +7523,15 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="10:17">
       <c r="J184" s="1" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="K184">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L184">
         <v>1</v>
@@ -8752,15 +7549,15 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="10:17">
       <c r="J185" s="1" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="K185">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L185">
         <v>1</v>
@@ -8778,15 +7575,15 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="10:17">
       <c r="J186" s="1" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="K186">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L186">
         <v>1</v>
@@ -8804,15 +7601,15 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="10:17">
       <c r="J187" s="1" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="K187">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L187">
         <v>1</v>
@@ -8830,15 +7627,15 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="10:17">
       <c r="J188" s="1" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="K188">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L188">
         <v>1</v>
@@ -8856,15 +7653,15 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="10:17">
       <c r="J189" s="1" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="K189">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L189">
         <v>1</v>
@@ -8882,15 +7679,15 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="10:17">
       <c r="J190" s="1" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="K190">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L190">
         <v>1</v>
@@ -8908,15 +7705,15 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="10:17">
       <c r="J191" s="1" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="K191">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L191">
         <v>1</v>
@@ -8934,15 +7731,15 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="192" spans="10:17">
       <c r="J192" s="1" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="K192">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L192">
         <v>1</v>
@@ -8960,15 +7757,15 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>52</v>
+        <v>287</v>
       </c>
     </row>
     <row r="193" spans="10:17">
       <c r="J193" s="1" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="K193">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L193">
         <v>1</v>
@@ -8986,15 +7783,15 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="10:17">
       <c r="J194" s="1" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="K194">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L194">
         <v>1</v>
@@ -9012,15 +7809,15 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="10:17">
       <c r="J195" s="1" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="K195">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L195">
         <v>1</v>
@@ -9038,15 +7835,15 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="10:17">
       <c r="J196" s="1" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="K196">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L196">
         <v>1</v>
@@ -9064,15 +7861,15 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="10:17">
       <c r="J197" s="1" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="K197">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L197">
         <v>1</v>
@@ -9090,15 +7887,15 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="10:17">
       <c r="J198" s="1" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="K198">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L198">
         <v>1</v>
@@ -9116,15 +7913,15 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="10:17">
       <c r="J199" s="1" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="K199">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L199">
         <v>1</v>
@@ -9142,15 +7939,15 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="10:17">
       <c r="J200" s="1" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="K200">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L200">
         <v>1</v>
@@ -9168,15 +7965,15 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="10:17">
       <c r="J201" s="1" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="K201">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L201">
         <v>1</v>
@@ -9194,15 +7991,15 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202" spans="10:17">
       <c r="J202" s="1" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="K202">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L202">
         <v>1</v>
@@ -9220,15 +8017,15 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="10:17">
       <c r="J203" s="1" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="K203">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L203">
         <v>1</v>
@@ -9246,15 +8043,15 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="10:17">
       <c r="J204" s="1" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="K204">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L204">
         <v>1</v>
@@ -9272,15 +8069,15 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="10:17">
       <c r="J205" s="1" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="K205">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L205">
         <v>1</v>
@@ -9298,15 +8095,15 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>95</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="10:17">
       <c r="J206" s="1" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="K206">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L206">
         <v>1</v>
@@ -9324,15 +8121,15 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="10:17">
       <c r="J207" s="1" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="K207">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L207">
         <v>1</v>
@@ -9350,15 +8147,15 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208" spans="10:17">
       <c r="J208" s="1" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="K208">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L208">
         <v>1</v>
@@ -9376,15 +8173,15 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="10:17">
       <c r="J209" s="1" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="K209">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L209">
         <v>1</v>
@@ -9402,15 +8199,15 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="210" spans="10:17">
       <c r="J210" s="1" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="K210">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L210">
         <v>1</v>
@@ -9428,15 +8225,15 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="10:17">
       <c r="J211" s="1" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="K211">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L211">
         <v>1</v>
@@ -9454,15 +8251,15 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212" spans="10:17">
       <c r="J212" s="1" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="K212">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L212">
         <v>1</v>
@@ -9480,15 +8277,15 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="213" spans="10:17">
       <c r="J213" s="1" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="K213">
-        <v>0.0007674597083653108</v>
+        <v>0.0007751937984496124</v>
       </c>
       <c r="L213">
         <v>1</v>
@@ -9506,865 +8303,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="10:17">
-      <c r="J214" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K214">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L214">
-        <v>1</v>
-      </c>
-      <c r="M214">
-        <v>1</v>
-      </c>
-      <c r="N214">
-        <v>1</v>
-      </c>
-      <c r="O214">
-        <v>0</v>
-      </c>
-      <c r="P214" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q214">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="10:17">
-      <c r="J215" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="K215">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L215">
-        <v>1</v>
-      </c>
-      <c r="M215">
-        <v>1</v>
-      </c>
-      <c r="N215">
-        <v>1</v>
-      </c>
-      <c r="O215">
-        <v>0</v>
-      </c>
-      <c r="P215" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q215">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="10:17">
-      <c r="J216" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K216">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L216">
-        <v>1</v>
-      </c>
-      <c r="M216">
-        <v>1</v>
-      </c>
-      <c r="N216">
-        <v>1</v>
-      </c>
-      <c r="O216">
-        <v>0</v>
-      </c>
-      <c r="P216" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q216">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="217" spans="10:17">
-      <c r="J217" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K217">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L217">
-        <v>1</v>
-      </c>
-      <c r="M217">
-        <v>1</v>
-      </c>
-      <c r="N217">
-        <v>1</v>
-      </c>
-      <c r="O217">
-        <v>0</v>
-      </c>
-      <c r="P217" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q217">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="218" spans="10:17">
-      <c r="J218" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K218">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L218">
-        <v>1</v>
-      </c>
-      <c r="M218">
-        <v>1</v>
-      </c>
-      <c r="N218">
-        <v>1</v>
-      </c>
-      <c r="O218">
-        <v>0</v>
-      </c>
-      <c r="P218" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q218">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="219" spans="10:17">
-      <c r="J219" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K219">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L219">
-        <v>1</v>
-      </c>
-      <c r="M219">
-        <v>1</v>
-      </c>
-      <c r="N219">
-        <v>1</v>
-      </c>
-      <c r="O219">
-        <v>0</v>
-      </c>
-      <c r="P219" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q219">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="220" spans="10:17">
-      <c r="J220" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K220">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L220">
-        <v>1</v>
-      </c>
-      <c r="M220">
-        <v>1</v>
-      </c>
-      <c r="N220">
-        <v>1</v>
-      </c>
-      <c r="O220">
-        <v>0</v>
-      </c>
-      <c r="P220" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q220">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="221" spans="10:17">
-      <c r="J221" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K221">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L221">
-        <v>1</v>
-      </c>
-      <c r="M221">
-        <v>1</v>
-      </c>
-      <c r="N221">
-        <v>1</v>
-      </c>
-      <c r="O221">
-        <v>0</v>
-      </c>
-      <c r="P221" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q221">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="222" spans="10:17">
-      <c r="J222" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K222">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L222">
-        <v>1</v>
-      </c>
-      <c r="M222">
-        <v>1</v>
-      </c>
-      <c r="N222">
-        <v>1</v>
-      </c>
-      <c r="O222">
-        <v>0</v>
-      </c>
-      <c r="P222" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q222">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="10:17">
-      <c r="J223" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="K223">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L223">
-        <v>1</v>
-      </c>
-      <c r="M223">
-        <v>1</v>
-      </c>
-      <c r="N223">
-        <v>1</v>
-      </c>
-      <c r="O223">
-        <v>0</v>
-      </c>
-      <c r="P223" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q223">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="224" spans="10:17">
-      <c r="J224" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="K224">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L224">
-        <v>1</v>
-      </c>
-      <c r="M224">
-        <v>1</v>
-      </c>
-      <c r="N224">
-        <v>1</v>
-      </c>
-      <c r="O224">
-        <v>0</v>
-      </c>
-      <c r="P224" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q224">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="225" spans="10:17">
-      <c r="J225" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K225">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L225">
-        <v>1</v>
-      </c>
-      <c r="M225">
-        <v>1</v>
-      </c>
-      <c r="N225">
-        <v>1</v>
-      </c>
-      <c r="O225">
-        <v>0</v>
-      </c>
-      <c r="P225" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q225">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="226" spans="10:17">
-      <c r="J226" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="K226">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L226">
-        <v>1</v>
-      </c>
-      <c r="M226">
-        <v>1</v>
-      </c>
-      <c r="N226">
-        <v>1</v>
-      </c>
-      <c r="O226">
-        <v>0</v>
-      </c>
-      <c r="P226" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q226">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="10:17">
-      <c r="J227" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K227">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L227">
-        <v>1</v>
-      </c>
-      <c r="M227">
-        <v>1</v>
-      </c>
-      <c r="N227">
-        <v>1</v>
-      </c>
-      <c r="O227">
-        <v>0</v>
-      </c>
-      <c r="P227" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="10:17">
-      <c r="J228" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="K228">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L228">
-        <v>1</v>
-      </c>
-      <c r="M228">
-        <v>1</v>
-      </c>
-      <c r="N228">
-        <v>1</v>
-      </c>
-      <c r="O228">
-        <v>0</v>
-      </c>
-      <c r="P228" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="10:17">
-      <c r="J229" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K229">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L229">
-        <v>1</v>
-      </c>
-      <c r="M229">
-        <v>1</v>
-      </c>
-      <c r="N229">
-        <v>1</v>
-      </c>
-      <c r="O229">
-        <v>0</v>
-      </c>
-      <c r="P229" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q229">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="230" spans="10:17">
-      <c r="J230" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="K230">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L230">
-        <v>1</v>
-      </c>
-      <c r="M230">
-        <v>1</v>
-      </c>
-      <c r="N230">
-        <v>1</v>
-      </c>
-      <c r="O230">
-        <v>0</v>
-      </c>
-      <c r="P230" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="10:17">
-      <c r="J231" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="K231">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L231">
-        <v>1</v>
-      </c>
-      <c r="M231">
-        <v>1</v>
-      </c>
-      <c r="N231">
-        <v>1</v>
-      </c>
-      <c r="O231">
-        <v>0</v>
-      </c>
-      <c r="P231" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="10:17">
-      <c r="J232" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K232">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L232">
-        <v>1</v>
-      </c>
-      <c r="M232">
-        <v>1</v>
-      </c>
-      <c r="N232">
-        <v>1</v>
-      </c>
-      <c r="O232">
-        <v>0</v>
-      </c>
-      <c r="P232" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q232">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="10:17">
-      <c r="J233" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="K233">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L233">
-        <v>1</v>
-      </c>
-      <c r="M233">
-        <v>1</v>
-      </c>
-      <c r="N233">
-        <v>1</v>
-      </c>
-      <c r="O233">
-        <v>0</v>
-      </c>
-      <c r="P233" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q233">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="10:17">
-      <c r="J234" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K234">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L234">
-        <v>1</v>
-      </c>
-      <c r="M234">
-        <v>1</v>
-      </c>
-      <c r="N234">
-        <v>1</v>
-      </c>
-      <c r="O234">
-        <v>0</v>
-      </c>
-      <c r="P234" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q234">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="235" spans="10:17">
-      <c r="J235" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K235">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L235">
-        <v>1</v>
-      </c>
-      <c r="M235">
-        <v>1</v>
-      </c>
-      <c r="N235">
-        <v>1</v>
-      </c>
-      <c r="O235">
-        <v>0</v>
-      </c>
-      <c r="P235" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q235">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="236" spans="10:17">
-      <c r="J236" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="K236">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L236">
-        <v>1</v>
-      </c>
-      <c r="M236">
-        <v>1</v>
-      </c>
-      <c r="N236">
-        <v>1</v>
-      </c>
-      <c r="O236">
-        <v>0</v>
-      </c>
-      <c r="P236" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q236">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="10:17">
-      <c r="J237" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="K237">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L237">
-        <v>1</v>
-      </c>
-      <c r="M237">
-        <v>1</v>
-      </c>
-      <c r="N237">
-        <v>1</v>
-      </c>
-      <c r="O237">
-        <v>0</v>
-      </c>
-      <c r="P237" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q237">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="238" spans="10:17">
-      <c r="J238" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K238">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L238">
-        <v>1</v>
-      </c>
-      <c r="M238">
-        <v>1</v>
-      </c>
-      <c r="N238">
-        <v>1</v>
-      </c>
-      <c r="O238">
-        <v>0</v>
-      </c>
-      <c r="P238" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q238">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="10:17">
-      <c r="J239" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="K239">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L239">
-        <v>1</v>
-      </c>
-      <c r="M239">
-        <v>1</v>
-      </c>
-      <c r="N239">
-        <v>1</v>
-      </c>
-      <c r="O239">
-        <v>0</v>
-      </c>
-      <c r="P239" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q239">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="240" spans="10:17">
-      <c r="J240" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K240">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L240">
-        <v>1</v>
-      </c>
-      <c r="M240">
-        <v>1</v>
-      </c>
-      <c r="N240">
-        <v>1</v>
-      </c>
-      <c r="O240">
-        <v>0</v>
-      </c>
-      <c r="P240" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q240">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="241" spans="10:17">
-      <c r="J241" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="K241">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L241">
-        <v>1</v>
-      </c>
-      <c r="M241">
-        <v>1</v>
-      </c>
-      <c r="N241">
-        <v>1</v>
-      </c>
-      <c r="O241">
-        <v>0</v>
-      </c>
-      <c r="P241" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q241">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="242" spans="10:17">
-      <c r="J242" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="K242">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L242">
-        <v>1</v>
-      </c>
-      <c r="M242">
-        <v>1</v>
-      </c>
-      <c r="N242">
-        <v>1</v>
-      </c>
-      <c r="O242">
-        <v>0</v>
-      </c>
-      <c r="P242" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q242">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="243" spans="10:17">
-      <c r="J243" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K243">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L243">
-        <v>1</v>
-      </c>
-      <c r="M243">
-        <v>1</v>
-      </c>
-      <c r="N243">
-        <v>1</v>
-      </c>
-      <c r="O243">
-        <v>0</v>
-      </c>
-      <c r="P243" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q243">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="244" spans="10:17">
-      <c r="J244" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K244">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L244">
-        <v>1</v>
-      </c>
-      <c r="M244">
-        <v>1</v>
-      </c>
-      <c r="N244">
-        <v>1</v>
-      </c>
-      <c r="O244">
-        <v>0</v>
-      </c>
-      <c r="P244" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q244">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="245" spans="10:17">
-      <c r="J245" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="K245">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L245">
-        <v>1</v>
-      </c>
-      <c r="M245">
-        <v>1</v>
-      </c>
-      <c r="N245">
-        <v>1</v>
-      </c>
-      <c r="O245">
-        <v>0</v>
-      </c>
-      <c r="P245" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q245">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="246" spans="10:17">
-      <c r="J246" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="K246">
-        <v>0.0007674597083653108</v>
-      </c>
-      <c r="L246">
-        <v>1</v>
-      </c>
-      <c r="M246">
-        <v>1</v>
-      </c>
-      <c r="N246">
-        <v>1</v>
-      </c>
-      <c r="O246">
-        <v>0</v>
-      </c>
-      <c r="P246" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q246">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
